--- a/data/conferences.xlsx
+++ b/data/conferences.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>Conference</t>
   </si>
@@ -188,6 +188,137 @@
   <si>
     <t>Roche Data Sciences</t>
   </si>
+  <si>
+    <t>http://www.dagstat2019.de</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Regina Stegherr</t>
+  </si>
+  <si>
+    <t>Methodological aspects in the analysis of adverse
+events in time-to-event data</t>
+  </si>
+  <si>
+    <t>DAGStat Conference</t>
+  </si>
+  <si>
+    <t>talks/20190325_Stegherr_DAGStat.pdf</t>
+  </si>
+  <si>
+    <t>Rationale and first results from the SAVVY project</t>
+  </si>
+  <si>
+    <t>https://www2.aeplan.co.jp/isbs2019/</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>7th International Symposium on Biopharmaceutical Statistics</t>
+  </si>
+  <si>
+    <t>https://www.iscb.info/iscb-conference-2020/</t>
+  </si>
+  <si>
+    <t>Yearly conferenfe of the international Society of Clinical Biostatistics (ISCB)</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Survival analysis for AdVerse events with Varying follow-up times - The
+empirical study of the SAVVY project</t>
+  </si>
+  <si>
+    <t>talks/20190827_Stegherr_ISBS.pdf</t>
+  </si>
+  <si>
+    <t>talks/20200825_Stegherr_ISBC2020.pdf</t>
+  </si>
+  <si>
+    <t>Methodological aspects in the analysis of adverse events in time-to-event</t>
+  </si>
+  <si>
+    <t>Kopenhagen</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Survival Analysis for Junior Researchers</t>
+  </si>
+  <si>
+    <t>Krakow (virtual)</t>
+  </si>
+  <si>
+    <t>GMDS &amp; CEN-IBS 2020</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Survival analysis for AdVerse events with Varying follow-up times - The empirical study of the SAVVY project</t>
+  </si>
+  <si>
+    <t>Berlin (virtual)</t>
+  </si>
+  <si>
+    <t>Survival analysis for AdVerse events with VarYing follow-up times - Results of the empirical study of the SAVVY project</t>
+  </si>
+  <si>
+    <t>https://www.vetmed.fu-berlin.de/einrichtungen/institute/we16/kolloquium/index.html</t>
+  </si>
+  <si>
+    <t>Berliner Kolloquium Statistische Methoden in der empirischen Forschung</t>
+  </si>
+  <si>
+    <t>Invited presentation</t>
+  </si>
+  <si>
+    <t>67. GMDS-Jahrestagung</t>
+  </si>
+  <si>
+    <t>https://access.online-registry.net/gmds-tmf-2022/download/sessionlist/overview.html</t>
+  </si>
+  <si>
+    <t>Kiel (virtual)</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Face-to-face</t>
+  </si>
+  <si>
+    <t>Contributed talk</t>
+  </si>
+  <si>
+    <t>Survival analysis for AdVerse events with VarYing follow-up times – The SAVVY Project</t>
+  </si>
+  <si>
+    <t>talks/20220825_Stegherr_GMDS.pdf</t>
+  </si>
+  <si>
+    <t>talks/20211117_Stegherr_Berlin.pdf</t>
+  </si>
+  <si>
+    <t>Survival analysis for AdVerse events with VarYing follow-up times - Results of the empirical study of the SAVVY project</t>
+  </si>
+  <si>
+    <t>Oncology estimand working group (Safety task force)</t>
+  </si>
+  <si>
+    <t>https://oncoestimand.github.io/oncowg_webpage/docs/taskforces.html#estimands-for-safety</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -233,6 +364,35 @@
       <color rgb="FF00B050"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,10 +411,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -304,8 +465,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -699,7 +886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="132.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,10 +898,10 @@
     <col min="5" max="6" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="127.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="65" bestFit="1" customWidth="1"/>
@@ -893,9 +1080,11 @@
       <c r="J2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>40</v>
@@ -966,8 +1155,11 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="2"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>47</v>
@@ -1040,9 +1232,11 @@
       <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>47</v>
@@ -1083,31 +1277,52 @@
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:44" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>03</v>
       </c>
       <c r="D5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>25</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="str">
+        <f>"25.03.2019"</f>
+        <v>25.03.2019</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="H5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1139,30 +1354,51 @@
       <c r="AR5" s="4"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>08</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>27</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="str">
+        <f>"27.08.2019"</f>
+        <v>27.08.2019</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="H6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1193,31 +1429,52 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:44" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="B7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C7" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>08</v>
       </c>
       <c r="D7" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>25</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="str">
+        <f>"25.08.2020"</f>
+        <v>25.08.2020</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="H7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1249,29 +1506,46 @@
       <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="B8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C8" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>03</v>
       </c>
       <c r="D8" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>15</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="str">
+        <f>"15.03.2019"</f>
+        <v>15.03.2019</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
+      <c r="I8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1304,29 +1578,46 @@
       <c r="AR8" s="4"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="B9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>09</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>15</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="str">
+        <f>"15.09.2020"</f>
+        <v>15.09.2020</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
+      <c r="I9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1359,30 +1650,51 @@
       <c r="AR9" s="4"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="B10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C10" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="D10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>17</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="str">
+        <f>"17.11.2020"</f>
+        <v>17.11.2020</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="H10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1414,30 +1726,51 @@
       <c r="AR10" s="4"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="B11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="C11" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>08</v>
       </c>
       <c r="D11" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>25</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="str">
+        <f>"25.08.2022"</f>
+        <v>25.08.2022</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="H11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1469,29 +1802,43 @@
       <c r="AR11" s="4"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="B12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="C12" s="12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>08</v>
       </c>
       <c r="D12" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>30</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="str">
+        <f>"30.08.2022"</f>
+        <v>30.08.2022</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
+      <c r="K12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1523,8 +1870,8 @@
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1578,8 +1925,8 @@
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1688,8 +2035,8 @@
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1705,7 +2052,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
@@ -1743,8 +2090,8 @@
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1760,7 +2107,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
@@ -1798,8 +2145,8 @@
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1815,7 +2162,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
@@ -1853,8 +2200,8 @@
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1909,7 +2256,6 @@
       <c r="AR19" s="4"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
       <c r="B20" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -41868,9 +42214,16 @@
     <sortCondition ref="C2:C1000"/>
     <sortCondition ref="D2:D1000"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H10" r:id="rId4"/>
+    <hyperlink ref="H11" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -42021,18 +42374,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42054,18 +42407,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/conferences.xlsx
+++ b/data/conferences.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>Conference</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>https://oncoestimand.github.io/oncowg_webpage/docs/taskforces.html#estimands-for-safety</t>
+  </si>
+  <si>
+    <t>talks/20220830_Stegherr_EstimandsinSafety.pdf</t>
   </si>
 </sst>
 </file>
@@ -884,9 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR886"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="132.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1842,9 @@
       <c r="N12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -42374,18 +42379,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42407,18 +42412,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/conferences.xlsx
+++ b/data/conferences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\23_Collaborations\21_SAVVY\28_savvy_github\savvy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\23_Collaborations\21_SAVVY\06_webpage\savvy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
   <si>
     <t>Conference</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Kaspar Rufibach</t>
   </si>
   <si>
-    <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with competing risks, with a focus on analysis of Aes</t>
-  </si>
-  <si>
     <t>Virtual training</t>
   </si>
   <si>
@@ -199,10 +196,6 @@
   </si>
   <si>
     <t>Regina Stegherr</t>
-  </si>
-  <si>
-    <t>Methodological aspects in the analysis of adverse
-events in time-to-event data</t>
   </si>
   <si>
     <t>DAGStat Conference</t>
@@ -233,10 +226,6 @@
   </si>
   <si>
     <t>Poland</t>
-  </si>
-  <si>
-    <t>Survival analysis for AdVerse events with Varying follow-up times - The
-empirical study of the SAVVY project</t>
   </si>
   <si>
     <t>talks/20190827_Stegherr_ISBS.pdf</t>
@@ -321,6 +310,27 @@
   </si>
   <si>
     <t>talks/20220830_Stegherr_EstimandsinSafety.pdf</t>
+  </si>
+  <si>
+    <t>Seminar of the Basel Biometric Society: "Quantification of risk: ask the right questions or time to apply the estimand framework to safety!"</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/events_past.html#quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with competing risks, with a focus on analysis of AEs</t>
+  </si>
+  <si>
+    <t>Methodological aspects in the analysis of adverse events in time-to-event data</t>
+  </si>
+  <si>
+    <t>Survival analysis for AdVerse events with Varying follow-up times - The empirical study of the SAVVY project</t>
+  </si>
+  <si>
+    <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with competing risks, with a focus on analysis of Aes</t>
   </si>
 </sst>
 </file>
@@ -889,7 +899,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="132.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1097,7 @@
         <v>46</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>40</v>
@@ -1162,7 +1172,7 @@
         <v>46</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>47</v>
@@ -1205,7 +1215,7 @@
     </row>
     <row r="4" spans="1:44" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1236,19 +1246,19 @@
         <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1280,9 +1290,9 @@
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
     </row>
-    <row r="5" spans="1:44" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1303,28 +1313,28 @@
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
       <c r="H5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1358,7 +1368,7 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1379,28 +1389,28 @@
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
       <c r="H6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="K6" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1432,9 +1442,9 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
     </row>
-    <row r="7" spans="1:44" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1455,28 +1465,28 @@
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
       <c r="H7" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>46</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1510,7 +1520,7 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1532,22 +1542,22 @@
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
       <c r="I8" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1582,7 +1592,7 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1604,22 +1614,22 @@
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
       <c r="I9" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1654,7 +1664,7 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1675,28 +1685,28 @@
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1730,7 +1740,7 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1751,28 +1761,28 @@
       <c r="F11" s="5"/>
       <c r="G11" s="2"/>
       <c r="H11" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1806,7 +1816,7 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1827,23 +1837,23 @@
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
       <c r="H12" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="22" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1875,31 +1885,52 @@
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
     </row>
-    <row r="13" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:44" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="B13" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" ref="B13" si="6">MID(E13, 9, 2)</f>
+        <v>23</v>
       </c>
       <c r="C13" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ref="C13" si="7">MID(E13, 4, 2)</f>
+        <v>04</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="D13" si="8">MID(E13, 1, 2)</f>
+        <v>12</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="H13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -42225,10 +42256,11 @@
     <hyperlink ref="H7" r:id="rId3"/>
     <hyperlink ref="H10" r:id="rId4"/>
     <hyperlink ref="H11" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId6" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/data/conferences.xlsx
+++ b/data/conferences.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>Conference</t>
   </si>
@@ -330,7 +330,40 @@
     <t>Survival analysis for AdVerse events with Varying follow-up times - The empirical study of the SAVVY project</t>
   </si>
   <si>
-    <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with competing risks, with a focus on analysis of Aes</t>
+    <t>https://numbersman77.github.io/kasparrufibach/files/talks/20230828_Rufibach_SAVVY.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iscb2023.info/</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>ISCB44</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Organized session</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>https://www.diaglobal.org/Flagship/DIA-2024</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Italian Biostatistics Group</t>
+  </si>
+  <si>
+    <t>https://numbersman77.github.io/kasparrufibach/files/talks/20231023_Rufibach_IBIG_SAVVY.pdf</t>
   </si>
 </sst>
 </file>
@@ -895,11 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR886"/>
+  <dimension ref="A1:AR887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="132.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,15 +1176,15 @@
         <v>44</v>
       </c>
       <c r="B3" s="12" t="str">
-        <f t="shared" ref="B3:B27" si="3">MID(E3, 9, 2)</f>
+        <f t="shared" ref="B3:B28" si="3">MID(E3, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C3" s="12" t="str">
-        <f t="shared" ref="C3:C27" si="4">MID(E3, 4, 2)</f>
+        <f t="shared" ref="C3:C28" si="4">MID(E3, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D3" s="12" t="str">
-        <f t="shared" ref="D3:D27" si="5">MID(E3, 1, 2)</f>
+        <f t="shared" ref="D3:D28" si="5">MID(E3, 1, 2)</f>
         <v>10</v>
       </c>
       <c r="E3" s="5" t="str">
@@ -1926,7 +1959,7 @@
         <v>47</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>94</v>
@@ -1961,31 +1994,50 @@
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
     </row>
-    <row r="14" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="14" spans="1:44" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="12">
+        <v>23</v>
       </c>
       <c r="C14" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f>"08"</f>
+        <v>08</v>
       </c>
-      <c r="D14" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="D14" s="12">
+        <v>30</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="str">
+        <f>"30.08.2024"</f>
+        <v>30.08.2024</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="H14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -2016,31 +2068,43 @@
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="15" spans="1:44" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>109</v>
       </c>
-      <c r="C15" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B15" s="12">
+        <v>23</v>
       </c>
-      <c r="D15" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C15" s="12">
+        <v>10</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15" s="12">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f>"23.10.2023"</f>
+        <v>23.10.2023</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="4"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -2071,30 +2135,50 @@
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
     </row>
-    <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="16" spans="1:44" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="12">
+        <v>24</v>
       </c>
       <c r="C16" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f>"06"</f>
+        <v>06</v>
       </c>
-      <c r="D16" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="D16" s="12">
+        <v>16</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5" t="str">
+        <f>"16.06.2024"</f>
+        <v>16.06.2024</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f>"20.06.2024"</f>
+        <v>20.06.2024</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2"/>
+      <c r="H16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2143,7 +2227,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
@@ -2253,7 +2337,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
@@ -2291,7 +2375,8 @@
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
       <c r="B20" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2346,7 +2431,6 @@
       <c r="AR20" s="4"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
       <c r="B21" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2732,9 +2816,18 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D28" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="2"/>
@@ -6411,50 +6504,50 @@
       <c r="AR107" s="4"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="2"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-      <c r="X108" s="3"/>
-      <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
-      <c r="AA108" s="3"/>
-      <c r="AB108" s="3"/>
-      <c r="AC108" s="3"/>
-      <c r="AD108" s="3"/>
-      <c r="AE108" s="3"/>
-      <c r="AF108" s="3"/>
-      <c r="AG108" s="3"/>
-      <c r="AH108" s="3"/>
-      <c r="AI108" s="3"/>
-      <c r="AJ108" s="3"/>
-      <c r="AK108" s="3"/>
-      <c r="AL108" s="3"/>
-      <c r="AM108" s="3"/>
-      <c r="AN108" s="3"/>
-      <c r="AO108" s="3"/>
-      <c r="AP108" s="3"/>
-      <c r="AQ108" s="3"/>
-      <c r="AR108" s="3"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+      <c r="AD108" s="4"/>
+      <c r="AE108" s="4"/>
+      <c r="AF108" s="4"/>
+      <c r="AG108" s="4"/>
+      <c r="AH108" s="4"/>
+      <c r="AI108" s="4"/>
+      <c r="AJ108" s="4"/>
+      <c r="AK108" s="4"/>
+      <c r="AL108" s="4"/>
+      <c r="AM108" s="4"/>
+      <c r="AN108" s="4"/>
+      <c r="AO108" s="4"/>
+      <c r="AP108" s="4"/>
+      <c r="AQ108" s="4"/>
+      <c r="AR108" s="4"/>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -42244,6 +42337,52 @@
       <c r="AQ886" s="3"/>
       <c r="AR886" s="3"/>
     </row>
+    <row r="887" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A887" s="3"/>
+      <c r="B887" s="6"/>
+      <c r="C887" s="6"/>
+      <c r="D887" s="6"/>
+      <c r="E887" s="6"/>
+      <c r="F887" s="6"/>
+      <c r="G887" s="3"/>
+      <c r="H887" s="3"/>
+      <c r="I887" s="3"/>
+      <c r="J887" s="3"/>
+      <c r="K887" s="3"/>
+      <c r="L887" s="3"/>
+      <c r="M887" s="3"/>
+      <c r="N887" s="3"/>
+      <c r="O887" s="3"/>
+      <c r="P887" s="3"/>
+      <c r="Q887" s="3"/>
+      <c r="R887" s="3"/>
+      <c r="S887" s="3"/>
+      <c r="T887" s="3"/>
+      <c r="U887" s="3"/>
+      <c r="V887" s="3"/>
+      <c r="W887" s="3"/>
+      <c r="X887" s="3"/>
+      <c r="Y887" s="3"/>
+      <c r="Z887" s="3"/>
+      <c r="AA887" s="3"/>
+      <c r="AB887" s="3"/>
+      <c r="AC887" s="3"/>
+      <c r="AD887" s="3"/>
+      <c r="AE887" s="3"/>
+      <c r="AF887" s="3"/>
+      <c r="AG887" s="3"/>
+      <c r="AH887" s="3"/>
+      <c r="AI887" s="3"/>
+      <c r="AJ887" s="3"/>
+      <c r="AK887" s="3"/>
+      <c r="AL887" s="3"/>
+      <c r="AM887" s="3"/>
+      <c r="AN887" s="3"/>
+      <c r="AO887" s="3"/>
+      <c r="AP887" s="3"/>
+      <c r="AQ887" s="3"/>
+      <c r="AR887" s="3"/>
+    </row>
   </sheetData>
   <sortState ref="A2:AT1000">
     <sortCondition ref="B2:B1000"/>
@@ -42257,14 +42396,30 @@
     <hyperlink ref="H10" r:id="rId4"/>
     <hyperlink ref="H11" r:id="rId5"/>
     <hyperlink ref="H13" r:id="rId6" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
+    <hyperlink ref="H14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100329EEE15A9214C4A9CD88C49071DE3D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cfbdc3aec0f9764958d51c9cd4ae398">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1512c054-5eba-4473-9e73-107d9d6b916a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b93104c4cb30fae26fe00c66df1ba726" ns2:_="">
     <xsd:import namespace="1512c054-5eba-4473-9e73-107d9d6b916a"/>
@@ -42410,22 +42565,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42441,21 +42598,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/conferences.xlsx
+++ b/data/conferences.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="112">
   <si>
     <t>Conference</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>https://numbersman77.github.io/kasparrufibach/files/talks/20231023_Rufibach_IBIG_SAVVY.pdf</t>
+  </si>
+  <si>
+    <t>Invited presentation (did not happen because virtual contribution not an option, contrary to initial communication)</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="132.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2174,7 @@
         <v>84</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>47</v>
@@ -42414,12 +42417,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100329EEE15A9214C4A9CD88C49071DE3D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cfbdc3aec0f9764958d51c9cd4ae398">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1512c054-5eba-4473-9e73-107d9d6b916a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b93104c4cb30fae26fe00c66df1ba726" ns2:_="">
     <xsd:import namespace="1512c054-5eba-4473-9e73-107d9d6b916a"/>
@@ -42565,6 +42562,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
   <ds:schemaRefs>
@@ -42574,15 +42577,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42598,4 +42592,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>